--- a/storage/app/public/template_upload/Format_Upload_Putus_Sekolah.xlsx
+++ b/storage/app/public/template_upload/Format_Upload_Putus_Sekolah.xlsx
@@ -377,7 +377,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -645,6 +645,12 @@
       </c>
       <c r="G9">
         <v>5</v>
+      </c>
+      <c r="H9">
+        <v>67</v>
+      </c>
+      <c r="I9">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/storage/app/public/template_upload/Format_Upload_Putus_Sekolah.xlsx
+++ b/storage/app/public/template_upload/Format_Upload_Putus_Sekolah.xlsx
@@ -16,33 +16,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>desa_id</t>
-  </si>
-  <si>
-    <t>siswa_paud</t>
-  </si>
-  <si>
-    <t>anak_usia_paud</t>
-  </si>
-  <si>
-    <t>siswa_sd</t>
-  </si>
-  <si>
-    <t>anak_usia_sd</t>
-  </si>
-  <si>
-    <t>siswa_smp</t>
-  </si>
-  <si>
-    <t>anak_usia_smp</t>
-  </si>
-  <si>
-    <t>siswa_sma</t>
-  </si>
-  <si>
-    <t>anak_usia_sma</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>siswa_paud_ra</t>
+  </si>
+  <si>
+    <t>anak_usia_paud_ra</t>
+  </si>
+  <si>
+    <t>siswa_sd_mi</t>
+  </si>
+  <si>
+    <t>anak_usia_sd_mi</t>
+  </si>
+  <si>
+    <t>siswa_smp_mts</t>
+  </si>
+  <si>
+    <t>siswa_sma_ma</t>
+  </si>
+  <si>
+    <t>anak_usia_sma_ma</t>
+  </si>
+  <si>
+    <t>anak_usia_smp_mts</t>
   </si>
 </sst>
 </file>
@@ -374,25 +371,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,248 +406,39 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2">
-        <v>5203090011</v>
+        <v>34</v>
       </c>
       <c r="B2">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
         <v>45</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>3</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>45</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>5203090012</v>
-      </c>
-      <c r="B3">
-        <v>44</v>
-      </c>
-      <c r="C3">
-        <v>45</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>43</v>
-      </c>
-      <c r="F3">
-        <v>67</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>43</v>
-      </c>
-      <c r="I3">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>5203090013</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>43</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>5203090014</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>67</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>34</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>5203090015</v>
-      </c>
-      <c r="B6">
-        <v>67</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>44</v>
-      </c>
-      <c r="G6">
-        <v>45</v>
-      </c>
-      <c r="H6">
-        <v>67</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>5203090016</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>67</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>43</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>5203090017</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>34</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>5203090018</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>34</v>
-      </c>
-      <c r="F9">
-        <v>67</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <v>67</v>
-      </c>
-      <c r="I9">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
